--- a/results/mp/deberta/corona/confidence/126/stop-words-desired-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-desired-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="161">
   <si>
     <t>anchor score</t>
   </si>
@@ -64,151 +64,151 @@
     <t>panic</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>benefits</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>wu</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>benefits</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>wu</t>
-  </si>
-  <si>
-    <t>credit</t>
   </si>
   <si>
     <t>offering</t>
@@ -862,10 +862,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -994,7 +994,7 @@
         <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1044,7 +1044,7 @@
         <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K5">
         <v>0.967741935483871</v>
@@ -1094,7 +1094,7 @@
         <v>103</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6">
         <v>0.9444444444444444</v>
@@ -1144,7 +1144,7 @@
         <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K7">
         <v>0.9361702127659575</v>
@@ -1194,7 +1194,7 @@
         <v>13</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K8">
         <v>0.9333333333333333</v>
@@ -1244,7 +1244,7 @@
         <v>49</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K9">
         <v>0.9333333333333333</v>
@@ -1294,7 +1294,7 @@
         <v>418</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K10">
         <v>0.9310344827586207</v>
@@ -1319,32 +1319,8 @@
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.1044776119402985</v>
-      </c>
-      <c r="C11">
-        <v>14</v>
-      </c>
-      <c r="D11">
-        <v>220</v>
-      </c>
-      <c r="E11">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F11">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>120</v>
-      </c>
       <c r="J11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K11">
         <v>0.9285714285714286</v>
@@ -1370,7 +1346,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K12">
         <v>0.9166666666666666</v>
@@ -1396,7 +1372,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K13">
         <v>0.9090909090909091</v>
@@ -1422,7 +1398,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K14">
         <v>0.905982905982906</v>
@@ -1448,7 +1424,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K15">
         <v>0.8947368421052632</v>
@@ -1474,7 +1450,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K16">
         <v>0.8846153846153846</v>
@@ -1500,7 +1476,7 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K17">
         <v>0.8807339449541285</v>
@@ -1526,7 +1502,7 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K18">
         <v>0.8666666666666667</v>
@@ -1552,7 +1528,7 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K19">
         <v>0.8666666666666667</v>
@@ -1578,7 +1554,7 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K20">
         <v>0.8582677165354331</v>
@@ -1604,7 +1580,7 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K21">
         <v>0.8285714285714286</v>
@@ -1630,7 +1606,7 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K22">
         <v>0.825</v>
@@ -1656,7 +1632,7 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K23">
         <v>0.8245614035087719</v>
@@ -1682,7 +1658,7 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K24">
         <v>0.8235294117647058</v>
@@ -1708,7 +1684,7 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K25">
         <v>0.8095238095238095</v>
@@ -1734,7 +1710,7 @@
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K26">
         <v>0.8076923076923077</v>
@@ -1760,7 +1736,7 @@
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K27">
         <v>0.8</v>
@@ -1786,7 +1762,7 @@
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K28">
         <v>0.7878787878787878</v>
@@ -1812,7 +1788,7 @@
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K29">
         <v>0.7857142857142857</v>
@@ -1838,7 +1814,7 @@
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K30">
         <v>0.782051282051282</v>
@@ -1864,7 +1840,7 @@
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K31">
         <v>0.7777777777777778</v>
@@ -1890,7 +1866,7 @@
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K32">
         <v>0.75</v>
@@ -1916,7 +1892,7 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K33">
         <v>0.7407407407407407</v>
@@ -1942,7 +1918,7 @@
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K34">
         <v>0.7368421052631579</v>
@@ -1968,85 +1944,85 @@
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K35">
-        <v>0.7324561403508771</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L35">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="M35">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="N35">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="O35">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K36">
-        <v>0.7222222222222222</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L36">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M36">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="N36">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O36">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K37">
-        <v>0.7111111111111111</v>
+        <v>0.698744769874477</v>
       </c>
       <c r="L37">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="M37">
-        <v>68</v>
+        <v>167</v>
       </c>
       <c r="N37">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>26</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K38">
         <v>0.6956521739130435</v>
@@ -2072,7 +2048,7 @@
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K39">
         <v>0.6825396825396826</v>
@@ -2098,7 +2074,7 @@
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K40">
         <v>0.6666666666666666</v>
@@ -2124,7 +2100,7 @@
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K41">
         <v>0.6666666666666666</v>
@@ -2150,7 +2126,7 @@
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K42">
         <v>0.6470588235294118</v>
@@ -2176,7 +2152,7 @@
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K43">
         <v>0.6363636363636364</v>
@@ -2202,7 +2178,7 @@
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K44">
         <v>0.6363636363636364</v>
@@ -2228,7 +2204,7 @@
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K45">
         <v>0.6322751322751323</v>
@@ -2254,28 +2230,28 @@
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="K46">
-        <v>0.6319018404907976</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L46">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="M46">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="N46">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O46">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2283,25 +2259,25 @@
         <v>61</v>
       </c>
       <c r="K47">
-        <v>0.631578947368421</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L47">
-        <v>180</v>
+        <v>28</v>
       </c>
       <c r="M47">
-        <v>190</v>
+        <v>31</v>
       </c>
       <c r="N47">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="O47">
-        <v>0.05000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>105</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2309,25 +2285,25 @@
         <v>62</v>
       </c>
       <c r="K48">
-        <v>0.6222222222222222</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L48">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="M48">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="N48">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2335,25 +2311,25 @@
         <v>63</v>
       </c>
       <c r="K49">
-        <v>0.6153846153846154</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="L49">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M49">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2361,25 +2337,25 @@
         <v>64</v>
       </c>
       <c r="K50">
-        <v>0.6129032258064516</v>
+        <v>0.6058823529411764</v>
       </c>
       <c r="L50">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="M50">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="N50">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>12</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="10:17">
